--- a/2019-2023.xlsx
+++ b/2019-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zheng73/Desktop/实习/投入产出/时序 IO编制/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zheng73/Desktop/实习/投入产出/政策影响/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179B2276-A6C7-AC4C-9B42-B5C7B71E9E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49715447-D1C3-CC45-8244-23B3D037A82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="2860" windowWidth="27240" windowHeight="16360" xr2:uid="{7707B3C0-59E8-6C4A-98CB-0B614757EA97}"/>
+    <workbookView xWindow="7320" yWindow="2860" windowWidth="27240" windowHeight="16360" activeTab="6" xr2:uid="{7707B3C0-59E8-6C4A-98CB-0B614757EA97}"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="va" sheetId="3" r:id="rId3"/>
     <sheet name="fu" sheetId="4" r:id="rId4"/>
     <sheet name="im" sheetId="5" r:id="rId5"/>
+    <sheet name="fu_adj" sheetId="6" r:id="rId6"/>
+    <sheet name="im_adj" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -863,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECFDA4C-6728-FD47-99B3-82A4451B3D7E}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3013,7 +3015,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>10961987.988347452</v>
+        <v>1096.1987988347453</v>
       </c>
       <c r="C127">
         <v>1225.2549106784695</v>
@@ -3030,7 +3032,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>185915902.9429889</v>
+        <v>18591.590294298891</v>
       </c>
       <c r="C128">
         <v>25506.49674216588</v>
@@ -6126,7 +6128,7 @@
   <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+      <selection activeCell="C2" sqref="C2:C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14012,4 +14014,4346 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32316439-889E-B04D-8E93-29D4F9C7A4BF}">
+  <dimension ref="A1:D154"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>2019</v>
+      </c>
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>15728.035797950301</v>
+      </c>
+      <c r="B2">
+        <v>21323.743805499798</v>
+      </c>
+      <c r="C2">
+        <v>22398.940723609699</v>
+      </c>
+      <c r="D2">
+        <v>23497.7217449481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>503.71716889225797</v>
+      </c>
+      <c r="B3">
+        <v>486.31315255395998</v>
+      </c>
+      <c r="C3">
+        <v>510.16612858214</v>
+      </c>
+      <c r="D3">
+        <v>533.93961738513099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>11874.127231839</v>
+      </c>
+      <c r="B4">
+        <v>18409.111408737201</v>
+      </c>
+      <c r="C4">
+        <v>19216.188279141199</v>
+      </c>
+      <c r="D4">
+        <v>20158.427027030601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>5799.5293813533099</v>
+      </c>
+      <c r="B5">
+        <v>7007.9882339019096</v>
+      </c>
+      <c r="C5">
+        <v>7347.3195772026302</v>
+      </c>
+      <c r="D5">
+        <v>7694.1601472783796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1906.67638198548</v>
+      </c>
+      <c r="B6">
+        <v>2202.0995176963902</v>
+      </c>
+      <c r="C6">
+        <v>2303.0690996131698</v>
+      </c>
+      <c r="D6">
+        <v>2410.7975555743601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>116.890018844978</v>
+      </c>
+      <c r="B7">
+        <v>-127.57203560309399</v>
+      </c>
+      <c r="C7">
+        <v>-134.16584183437601</v>
+      </c>
+      <c r="D7">
+        <v>-140.36760585896101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1179.7926252202601</v>
+      </c>
+      <c r="B8">
+        <v>153.652766670879</v>
+      </c>
+      <c r="C8">
+        <v>161.11247314236499</v>
+      </c>
+      <c r="D8">
+        <v>168.757288891169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>-90.878822533736496</v>
+      </c>
+      <c r="B9">
+        <v>250.57254333489701</v>
+      </c>
+      <c r="C9">
+        <v>262.91346005590299</v>
+      </c>
+      <c r="D9">
+        <v>275.32878843389199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>61.774766768133098</v>
+      </c>
+      <c r="B10">
+        <v>56.702229474912698</v>
+      </c>
+      <c r="C10">
+        <v>59.291470137333903</v>
+      </c>
+      <c r="D10">
+        <v>62.091649185866601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>452.61992962140198</v>
+      </c>
+      <c r="B11">
+        <v>378.845492438039</v>
+      </c>
+      <c r="C11">
+        <v>397.12599085801901</v>
+      </c>
+      <c r="D11">
+        <v>415.73824972029598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>5746.5436810512701</v>
+      </c>
+      <c r="B13">
+        <v>6217.9751213627696</v>
+      </c>
+      <c r="C13">
+        <v>6518.0718272510103</v>
+      </c>
+      <c r="D13">
+        <v>6830.2086185066401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>223.299471624977</v>
+      </c>
+      <c r="B14">
+        <v>646.15388291322802</v>
+      </c>
+      <c r="C14">
+        <v>677.68743003606301</v>
+      </c>
+      <c r="D14">
+        <v>709.96181662440904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>3020.0298420086901</v>
+      </c>
+      <c r="B15">
+        <v>3530.6154190297202</v>
+      </c>
+      <c r="C15">
+        <v>3704.9889326306502</v>
+      </c>
+      <c r="D15">
+        <v>3882.6248452203999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>358.97236162362998</v>
+      </c>
+      <c r="B16">
+        <v>370.098781375459</v>
+      </c>
+      <c r="C16">
+        <v>387.83066735379799</v>
+      </c>
+      <c r="D16">
+        <v>405.95700240272299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>12282.4535671884</v>
+      </c>
+      <c r="B17">
+        <v>17158.556330895299</v>
+      </c>
+      <c r="C17">
+        <v>17974.110012322901</v>
+      </c>
+      <c r="D17">
+        <v>18864.863089505201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>4129.6346423719397</v>
+      </c>
+      <c r="B18">
+        <v>3515.13212242799</v>
+      </c>
+      <c r="C18">
+        <v>3681.8170872662299</v>
+      </c>
+      <c r="D18">
+        <v>3853.3933188741198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>7610.8486126460502</v>
+      </c>
+      <c r="B19">
+        <v>8463.2601847615297</v>
+      </c>
+      <c r="C19">
+        <v>8867.0334731893599</v>
+      </c>
+      <c r="D19">
+        <v>9276.0915857521195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2465.3342532476099</v>
+      </c>
+      <c r="B20">
+        <v>3409.5758733192301</v>
+      </c>
+      <c r="C20">
+        <v>3576.5911494990401</v>
+      </c>
+      <c r="D20">
+        <v>3743.9053920013098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>4088.0523477332999</v>
+      </c>
+      <c r="B21">
+        <v>4117.8150296034</v>
+      </c>
+      <c r="C21">
+        <v>4319.8727246687604</v>
+      </c>
+      <c r="D21">
+        <v>4522.0638905707701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1720.0220886464199</v>
+      </c>
+      <c r="B22">
+        <v>2050.2149512429201</v>
+      </c>
+      <c r="C22">
+        <v>2147.9916187158001</v>
+      </c>
+      <c r="D22">
+        <v>2248.85925535451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>11696.4033576691</v>
+      </c>
+      <c r="B23">
+        <v>11752.1411808558</v>
+      </c>
+      <c r="C23">
+        <v>12327.2811039892</v>
+      </c>
+      <c r="D23">
+        <v>12925.378482085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>3720.9065226142002</v>
+      </c>
+      <c r="B24">
+        <v>3830.77618787246</v>
+      </c>
+      <c r="C24">
+        <v>4023.9887846532702</v>
+      </c>
+      <c r="D24">
+        <v>4211.7924722304597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>3601.84846491596</v>
+      </c>
+      <c r="B25">
+        <v>3331.4958799948899</v>
+      </c>
+      <c r="C25">
+        <v>3494.8714575815402</v>
+      </c>
+      <c r="D25">
+        <v>3661.9496337774699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>993.503979323056</v>
+      </c>
+      <c r="B26">
+        <v>1117.88934160911</v>
+      </c>
+      <c r="C26">
+        <v>1172.815006715</v>
+      </c>
+      <c r="D26">
+        <v>1227.6466593776399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>2954.1434315390702</v>
+      </c>
+      <c r="B27">
+        <v>3533.2373120572802</v>
+      </c>
+      <c r="C27">
+        <v>3706.1997436296101</v>
+      </c>
+      <c r="D27">
+        <v>3883.6909689583499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>2829.6981877488602</v>
+      </c>
+      <c r="B28">
+        <v>2145.6105431679698</v>
+      </c>
+      <c r="C28">
+        <v>2251.9243929295299</v>
+      </c>
+      <c r="D28">
+        <v>2357.5655252134602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>108.15436691415999</v>
+      </c>
+      <c r="B29">
+        <v>70.733960668315405</v>
+      </c>
+      <c r="C29">
+        <v>74.114034701922407</v>
+      </c>
+      <c r="D29">
+        <v>77.578512874639401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>156.95067773006201</v>
+      </c>
+      <c r="B30">
+        <v>57.338298965426397</v>
+      </c>
+      <c r="C30">
+        <v>60.203592190699197</v>
+      </c>
+      <c r="D30">
+        <v>63.027974809287699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1550.22237272289</v>
+      </c>
+      <c r="B31">
+        <v>1428.7431972254799</v>
+      </c>
+      <c r="C31">
+        <v>1498.1233921699099</v>
+      </c>
+      <c r="D31">
+        <v>1568.43570417141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>3607.4142321838899</v>
+      </c>
+      <c r="B32">
+        <v>6461.0273099204696</v>
+      </c>
+      <c r="C32">
+        <v>6784.7653550149798</v>
+      </c>
+      <c r="D32">
+        <v>7101.4306209973402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>13617.766968353</v>
+      </c>
+      <c r="B33">
+        <v>14216.9663177892</v>
+      </c>
+      <c r="C33">
+        <v>14910.9516726782</v>
+      </c>
+      <c r="D33">
+        <v>15642.689311215299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>4569.3271079759497</v>
+      </c>
+      <c r="B34">
+        <v>4656.9257129584803</v>
+      </c>
+      <c r="C34">
+        <v>4889.9016647320504</v>
+      </c>
+      <c r="D34">
+        <v>5124.1401677657204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>6124.4808163130601</v>
+      </c>
+      <c r="B35">
+        <v>6118.2013929688201</v>
+      </c>
+      <c r="C35">
+        <v>6331.6941318801801</v>
+      </c>
+      <c r="D35">
+        <v>6008.2589933039399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1211.99349648264</v>
+      </c>
+      <c r="B36">
+        <v>1222.79393482246</v>
+      </c>
+      <c r="C36">
+        <v>1283.8334354189401</v>
+      </c>
+      <c r="D36">
+        <v>1344.18195811691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>8679.6899211204909</v>
+      </c>
+      <c r="B37">
+        <v>8932.5673448138205</v>
+      </c>
+      <c r="C37">
+        <v>9357.9947789473699</v>
+      </c>
+      <c r="D37">
+        <v>9573.5432814223896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1095.78768404269</v>
+      </c>
+      <c r="B38">
+        <v>519.23483456586496</v>
+      </c>
+      <c r="C38">
+        <v>543.041054979828</v>
+      </c>
+      <c r="D38">
+        <v>568.65369694930098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>425.45908316771403</v>
+      </c>
+      <c r="B39">
+        <v>198.27073306720499</v>
+      </c>
+      <c r="C39">
+        <v>207.81168946783501</v>
+      </c>
+      <c r="D39">
+        <v>217.628380829934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>3399.0711094983299</v>
+      </c>
+      <c r="B40">
+        <v>4295.51978961433</v>
+      </c>
+      <c r="C40">
+        <v>4508.2336335744803</v>
+      </c>
+      <c r="D40">
+        <v>4721.5270654510196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>5727.77888455014</v>
+      </c>
+      <c r="B41">
+        <v>5923.6091274948203</v>
+      </c>
+      <c r="C41">
+        <v>6207.3819429689302</v>
+      </c>
+      <c r="D41">
+        <v>6499.2018728383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>6640.9933297613798</v>
+      </c>
+      <c r="B42">
+        <v>4466.25517481724</v>
+      </c>
+      <c r="C42">
+        <v>4684.5758291984703</v>
+      </c>
+      <c r="D42">
+        <v>4903.4184856968204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>490.90393912323299</v>
+      </c>
+      <c r="B43">
+        <v>462.85359121708098</v>
+      </c>
+      <c r="C43">
+        <v>485.57191160206901</v>
+      </c>
+      <c r="D43">
+        <v>508.42496143819699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>3101.57154092258</v>
+      </c>
+      <c r="B44">
+        <v>2077.1673486709301</v>
+      </c>
+      <c r="C44">
+        <v>2176.2500664628001</v>
+      </c>
+      <c r="D44">
+        <v>2278.0531122402099</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>711.65314679807705</v>
+      </c>
+      <c r="B45">
+        <v>358.961509149618</v>
+      </c>
+      <c r="C45">
+        <v>376.86001922595398</v>
+      </c>
+      <c r="D45">
+        <v>394.64600060612401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>419.79774807982</v>
+      </c>
+      <c r="B46">
+        <v>401.83070516783403</v>
+      </c>
+      <c r="C46">
+        <v>421.29135376127499</v>
+      </c>
+      <c r="D46">
+        <v>441.01349165560498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>529.96349248464901</v>
+      </c>
+      <c r="B47">
+        <v>493.27518575494003</v>
+      </c>
+      <c r="C47">
+        <v>517.78828470232702</v>
+      </c>
+      <c r="D47">
+        <v>541.92875414190598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>1478.0822343826601</v>
+      </c>
+      <c r="B48">
+        <v>683.64023310446396</v>
+      </c>
+      <c r="C48">
+        <v>716.95329402733796</v>
+      </c>
+      <c r="D48">
+        <v>750.75409408022404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>1352.5476185847499</v>
+      </c>
+      <c r="B49">
+        <v>440.86308899583003</v>
+      </c>
+      <c r="C49">
+        <v>462.07437359359199</v>
+      </c>
+      <c r="D49">
+        <v>483.46814465796302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>2695.8406601853599</v>
+      </c>
+      <c r="B50">
+        <v>3114.6426977555102</v>
+      </c>
+      <c r="C50">
+        <v>3266.4574934546399</v>
+      </c>
+      <c r="D50">
+        <v>3416.91025916542</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>8917.6684867681706</v>
+      </c>
+      <c r="B51">
+        <v>9682.8079103565597</v>
+      </c>
+      <c r="C51">
+        <v>10140.605616548501</v>
+      </c>
+      <c r="D51">
+        <v>10627.3210341628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>748.70953165461299</v>
+      </c>
+      <c r="B52">
+        <v>411.17629055752798</v>
+      </c>
+      <c r="C52">
+        <v>430.76774447983797</v>
+      </c>
+      <c r="D52">
+        <v>450.91840606941201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>1309.26791027023</v>
+      </c>
+      <c r="B53">
+        <v>1535.49401153912</v>
+      </c>
+      <c r="C53">
+        <v>1612.22384496941</v>
+      </c>
+      <c r="D53">
+        <v>1688.4646673280199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>4406.3604544244599</v>
+      </c>
+      <c r="B54">
+        <v>5359.2815937076502</v>
+      </c>
+      <c r="C54">
+        <v>5617.2682629225801</v>
+      </c>
+      <c r="D54">
+        <v>5880.5108742124603</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>76.124953373231804</v>
+      </c>
+      <c r="B55">
+        <v>227.86660431599799</v>
+      </c>
+      <c r="C55">
+        <v>238.71369996051601</v>
+      </c>
+      <c r="D55">
+        <v>249.91537186903199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>451.86822904435297</v>
+      </c>
+      <c r="B56">
+        <v>368.67188107841997</v>
+      </c>
+      <c r="C56">
+        <v>386.79044073503098</v>
+      </c>
+      <c r="D56">
+        <v>404.84237780321399</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>460.27780793001699</v>
+      </c>
+      <c r="B57">
+        <v>515.259334185086</v>
+      </c>
+      <c r="C57">
+        <v>539.80327675545698</v>
+      </c>
+      <c r="D57">
+        <v>565.18498563496405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>1232.2146026268699</v>
+      </c>
+      <c r="B58">
+        <v>1291.13155807822</v>
+      </c>
+      <c r="C58">
+        <v>1355.04027399338</v>
+      </c>
+      <c r="D58">
+        <v>1418.50590918327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>1515.4338622734699</v>
+      </c>
+      <c r="B59">
+        <v>1985.2372407415401</v>
+      </c>
+      <c r="C59">
+        <v>2082.8221441792298</v>
+      </c>
+      <c r="D59">
+        <v>2180.5982849244801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>206.55711950311701</v>
+      </c>
+      <c r="B60">
+        <v>71.153283660853603</v>
+      </c>
+      <c r="C60">
+        <v>71.848455072795801</v>
+      </c>
+      <c r="D60">
+        <v>75.215107456087395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>457.21905722997002</v>
+      </c>
+      <c r="B61">
+        <v>258.78358003280198</v>
+      </c>
+      <c r="C61">
+        <v>271.596471738731</v>
+      </c>
+      <c r="D61">
+        <v>284.31104073606298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>-58.551790701252202</v>
+      </c>
+      <c r="B62">
+        <v>110.41468653797899</v>
+      </c>
+      <c r="C62">
+        <v>115.75600583035801</v>
+      </c>
+      <c r="D62">
+        <v>121.198195819031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>4098.0833666223598</v>
+      </c>
+      <c r="B63">
+        <v>3236.0514085689501</v>
+      </c>
+      <c r="C63">
+        <v>3392.1071433545999</v>
+      </c>
+      <c r="D63">
+        <v>3551.3108194343199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>216.82761865614799</v>
+      </c>
+      <c r="B64">
+        <v>252.18349185611501</v>
+      </c>
+      <c r="C64">
+        <v>264.61703118371003</v>
+      </c>
+      <c r="D64">
+        <v>277.12336790968698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>807.33152709109697</v>
+      </c>
+      <c r="B65">
+        <v>688.87398923779301</v>
+      </c>
+      <c r="C65">
+        <v>721.58896274823906</v>
+      </c>
+      <c r="D65">
+        <v>755.57267844206206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1391.39015428312</v>
+      </c>
+      <c r="B66">
+        <v>1215.77128683916</v>
+      </c>
+      <c r="C66">
+        <v>1272.5536824897599</v>
+      </c>
+      <c r="D66">
+        <v>1332.7531455374999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>9416.1233756263391</v>
+      </c>
+      <c r="B67">
+        <v>11405.574615134399</v>
+      </c>
+      <c r="C67">
+        <v>11957.9780080892</v>
+      </c>
+      <c r="D67">
+        <v>12524.024349261699</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>2459.9959733572</v>
+      </c>
+      <c r="B68">
+        <v>3337.5653618147999</v>
+      </c>
+      <c r="C68">
+        <v>3500.9008884916402</v>
+      </c>
+      <c r="D68">
+        <v>3664.88340781339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>4754.5620171824703</v>
+      </c>
+      <c r="B69">
+        <v>4540.5735816391598</v>
+      </c>
+      <c r="C69">
+        <v>4764.4652813166704</v>
+      </c>
+      <c r="D69">
+        <v>4988.5085258412601</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>4722.7200257322802</v>
+      </c>
+      <c r="B70">
+        <v>6104.57843219594</v>
+      </c>
+      <c r="C70">
+        <v>6402.0346476506302</v>
+      </c>
+      <c r="D70">
+        <v>6703.7041302810703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>3627.5928469073801</v>
+      </c>
+      <c r="B71">
+        <v>4242.3502633824601</v>
+      </c>
+      <c r="C71">
+        <v>4443.6872505238098</v>
+      </c>
+      <c r="D71">
+        <v>4653.2063188316397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>4372.5795768960397</v>
+      </c>
+      <c r="B72">
+        <v>4486.8019723798698</v>
+      </c>
+      <c r="C72">
+        <v>4711.2299165385803</v>
+      </c>
+      <c r="D72">
+        <v>4934.62689359467</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>2010.2018158005101</v>
+      </c>
+      <c r="B73">
+        <v>1677.82948991854</v>
+      </c>
+      <c r="C73">
+        <v>1761.9454344475901</v>
+      </c>
+      <c r="D73">
+        <v>1843.7658625834799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>5353.9795951992101</v>
+      </c>
+      <c r="B74">
+        <v>6249.4717128047396</v>
+      </c>
+      <c r="C74">
+        <v>6547.2872809542196</v>
+      </c>
+      <c r="D74">
+        <v>6856.4848013883602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>6497.3542457812</v>
+      </c>
+      <c r="B75">
+        <v>7362.7079126061599</v>
+      </c>
+      <c r="C75">
+        <v>7726.5584895784496</v>
+      </c>
+      <c r="D75">
+        <v>8093.3401200968301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>4641.3984138764899</v>
+      </c>
+      <c r="B76">
+        <v>4964.6687299094401</v>
+      </c>
+      <c r="C76">
+        <v>5207.0789755666101</v>
+      </c>
+      <c r="D76">
+        <v>5454.5466566605201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>1329.1982913233601</v>
+      </c>
+      <c r="B77">
+        <v>1376.05361416645</v>
+      </c>
+      <c r="C77">
+        <v>1440.5730452907601</v>
+      </c>
+      <c r="D77">
+        <v>1507.6381661589401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>3269.4369596568299</v>
+      </c>
+      <c r="B78">
+        <v>5254.3387836366001</v>
+      </c>
+      <c r="C78">
+        <v>5512.0375040587896</v>
+      </c>
+      <c r="D78">
+        <v>5774.0776832653801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>11234.596639056601</v>
+      </c>
+      <c r="B79">
+        <v>11654.756291101899</v>
+      </c>
+      <c r="C79">
+        <v>12153.0490406751</v>
+      </c>
+      <c r="D79">
+        <v>12739.0331775619</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>36779.264671616402</v>
+      </c>
+      <c r="B80">
+        <v>38109.7457317222</v>
+      </c>
+      <c r="C80">
+        <v>39851.311987806497</v>
+      </c>
+      <c r="D80">
+        <v>41916.380238828497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>2845.80221647803</v>
+      </c>
+      <c r="B81">
+        <v>3713.2366571350899</v>
+      </c>
+      <c r="C81">
+        <v>3894.5697838378501</v>
+      </c>
+      <c r="D81">
+        <v>4079.23106247638</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>3461.3051649643498</v>
+      </c>
+      <c r="B82">
+        <v>3749.33691204148</v>
+      </c>
+      <c r="C82">
+        <v>3934.96956045255</v>
+      </c>
+      <c r="D82">
+        <v>4119.9665680466496</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>3310.4352624509402</v>
+      </c>
+      <c r="B83">
+        <v>2589.6065525512199</v>
+      </c>
+      <c r="C83">
+        <v>2717.2188049770298</v>
+      </c>
+      <c r="D83">
+        <v>2844.41106763785</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>5908.9559644720002</v>
+      </c>
+      <c r="B84">
+        <v>5328.6548302780002</v>
+      </c>
+      <c r="C84">
+        <v>5593.7559643643299</v>
+      </c>
+      <c r="D84">
+        <v>5856.0292085217898</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>3418.0159700305599</v>
+      </c>
+      <c r="B85">
+        <v>4466.6744381567496</v>
+      </c>
+      <c r="C85">
+        <v>4686.4895154920096</v>
+      </c>
+      <c r="D85">
+        <v>4909.7545299345102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>6208.0611711929196</v>
+      </c>
+      <c r="B86">
+        <v>7626.5206630502998</v>
+      </c>
+      <c r="C86">
+        <v>7985.1179954561703</v>
+      </c>
+      <c r="D86">
+        <v>8361.7248860398595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>2184.6956065139898</v>
+      </c>
+      <c r="B87">
+        <v>1477.3667090367801</v>
+      </c>
+      <c r="C87">
+        <v>1550.0238770774999</v>
+      </c>
+      <c r="D87">
+        <v>1623.4017053979401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>1377.71579316613</v>
+      </c>
+      <c r="B88">
+        <v>2040.0528658836299</v>
+      </c>
+      <c r="C88">
+        <v>2139.4088607356598</v>
+      </c>
+      <c r="D88">
+        <v>2240.79283414375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>9739.3690931350993</v>
+      </c>
+      <c r="B89">
+        <v>10293.7999408699</v>
+      </c>
+      <c r="C89">
+        <v>10806.5262781847</v>
+      </c>
+      <c r="D89">
+        <v>11324.6859957008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>4044.42994256375</v>
+      </c>
+      <c r="B90">
+        <v>4871.3605114617803</v>
+      </c>
+      <c r="C90">
+        <v>5115.1847272838704</v>
+      </c>
+      <c r="D90">
+        <v>5356.1188832225098</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>15280.2595405305</v>
+      </c>
+      <c r="B91">
+        <v>16296.297237554099</v>
+      </c>
+      <c r="C91">
+        <v>17059.633667063699</v>
+      </c>
+      <c r="D91">
+        <v>17880.988454559101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>24190.206800957501</v>
+      </c>
+      <c r="B92">
+        <v>24663.302770127098</v>
+      </c>
+      <c r="C92">
+        <v>25864.219018866701</v>
+      </c>
+      <c r="D92">
+        <v>27144.158565456801</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>3600.5324359512801</v>
+      </c>
+      <c r="B93">
+        <v>3917.3226640299499</v>
+      </c>
+      <c r="C93">
+        <v>4115.3569568287503</v>
+      </c>
+      <c r="D93">
+        <v>4304.5405606678996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>4089.0053111765401</v>
+      </c>
+      <c r="B94">
+        <v>3483.58481362359</v>
+      </c>
+      <c r="C94">
+        <v>3649.89465817067</v>
+      </c>
+      <c r="D94">
+        <v>3821.18985329713</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>10285.3182769949</v>
+      </c>
+      <c r="B95">
+        <v>14488.106985087101</v>
+      </c>
+      <c r="C95">
+        <v>15135.780035805201</v>
+      </c>
+      <c r="D95">
+        <v>15876.1979611518</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>1475.9779812408301</v>
+      </c>
+      <c r="B96">
+        <v>2403.5136444710101</v>
+      </c>
+      <c r="C96">
+        <v>2520.34418037968</v>
+      </c>
+      <c r="D96">
+        <v>2640.1426287955201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>4496.4591365231499</v>
+      </c>
+      <c r="B97">
+        <v>4204.1710185986703</v>
+      </c>
+      <c r="C97">
+        <v>4400.8868119296603</v>
+      </c>
+      <c r="D97">
+        <v>4607.2462967387301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1501.9517399972401</v>
+      </c>
+      <c r="B98">
+        <v>1489.0119497773901</v>
+      </c>
+      <c r="C98">
+        <v>1562.37039248774</v>
+      </c>
+      <c r="D98">
+        <v>1636.49104371507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>61.742264084897698</v>
+      </c>
+      <c r="B99">
+        <v>52.906894920196898</v>
+      </c>
+      <c r="C99">
+        <v>55.579101430589198</v>
+      </c>
+      <c r="D99">
+        <v>58.1401753437612</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>634.64730693488798</v>
+      </c>
+      <c r="B100">
+        <v>807.20805631121004</v>
+      </c>
+      <c r="C100">
+        <v>847.21338840049498</v>
+      </c>
+      <c r="D100">
+        <v>887.22259565343995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>6362.4234424716096</v>
+      </c>
+      <c r="B101">
+        <v>7001.9502484107597</v>
+      </c>
+      <c r="C101">
+        <v>7339.1087604042204</v>
+      </c>
+      <c r="D101">
+        <v>7689.8614479336702</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>2303.2398868148698</v>
+      </c>
+      <c r="B102">
+        <v>3873.85799034928</v>
+      </c>
+      <c r="C102">
+        <v>4064.69720722279</v>
+      </c>
+      <c r="D102">
+        <v>4260.1180376474204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>1525.7875227151201</v>
+      </c>
+      <c r="B103">
+        <v>2424.1349456153298</v>
+      </c>
+      <c r="C103">
+        <v>2543.86122582401</v>
+      </c>
+      <c r="D103">
+        <v>2663.1397631990098</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>139138.79995876001</v>
+      </c>
+      <c r="B104">
+        <v>129935.308678367</v>
+      </c>
+      <c r="C104">
+        <v>134554.54850886</v>
+      </c>
+      <c r="D104">
+        <v>140621.32399639601</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>16749.761285812601</v>
+      </c>
+      <c r="B105">
+        <v>22384.852222266902</v>
+      </c>
+      <c r="C105">
+        <v>23186.3192983755</v>
+      </c>
+      <c r="D105">
+        <v>24244.271819504102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>54258.923058024498</v>
+      </c>
+      <c r="B106">
+        <v>73058.577953403903</v>
+      </c>
+      <c r="C106">
+        <v>79477.850116254893</v>
+      </c>
+      <c r="D106">
+        <v>79279.923799503697</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>28893.778973497399</v>
+      </c>
+      <c r="B107">
+        <v>34522.790033941397</v>
+      </c>
+      <c r="C107">
+        <v>37552.4143657604</v>
+      </c>
+      <c r="D107">
+        <v>37452.590712181001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>20821.261693967201</v>
+      </c>
+      <c r="B108">
+        <v>31966.464970089699</v>
+      </c>
+      <c r="C108">
+        <v>33196.490949248502</v>
+      </c>
+      <c r="D108">
+        <v>35130.968644056004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>8934.6474005238306</v>
+      </c>
+      <c r="B109">
+        <v>9128.6676607594</v>
+      </c>
+      <c r="C109">
+        <v>9559.0396221103201</v>
+      </c>
+      <c r="D109">
+        <v>10015.9528529339</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>23686.442310869599</v>
+      </c>
+      <c r="B110">
+        <v>28822.660817155302</v>
+      </c>
+      <c r="C110">
+        <v>30185.854936099</v>
+      </c>
+      <c r="D110">
+        <v>31710.699448931398</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>22268.2659722319</v>
+      </c>
+      <c r="B111">
+        <v>26140.269049184</v>
+      </c>
+      <c r="C111">
+        <v>27328.392029316801</v>
+      </c>
+      <c r="D111">
+        <v>28708.826930134499</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>1187.41447591836</v>
+      </c>
+      <c r="B112">
+        <v>799.27254281360899</v>
+      </c>
+      <c r="C112">
+        <v>839.13275538045104</v>
+      </c>
+      <c r="D112">
+        <v>878.32488924851805</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>438.72474870257798</v>
+      </c>
+      <c r="B113">
+        <v>874.28450479020898</v>
+      </c>
+      <c r="C113">
+        <v>917.34409904536903</v>
+      </c>
+      <c r="D113">
+        <v>960.39358131378697</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>4741.7335112289802</v>
+      </c>
+      <c r="B114">
+        <v>5012.1125566675</v>
+      </c>
+      <c r="C114">
+        <v>5248.9617541954403</v>
+      </c>
+      <c r="D114">
+        <v>5500.9727198492901</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>12106.991143592901</v>
+      </c>
+      <c r="B115">
+        <v>11684.8730788626</v>
+      </c>
+      <c r="C115">
+        <v>12242.902884876199</v>
+      </c>
+      <c r="D115">
+        <v>12839.796335238399</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>534.74094404046002</v>
+      </c>
+      <c r="B116">
+        <v>83.288807635321902</v>
+      </c>
+      <c r="C116">
+        <v>87.358117434823498</v>
+      </c>
+      <c r="D116">
+        <v>91.446095316397503</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>2470.7579351259801</v>
+      </c>
+      <c r="B117">
+        <v>3167.1590998402999</v>
+      </c>
+      <c r="C117">
+        <v>3320.6250113319602</v>
+      </c>
+      <c r="D117">
+        <v>3475.7380678527502</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>3042.70638213559</v>
+      </c>
+      <c r="B118">
+        <v>1479.52482410364</v>
+      </c>
+      <c r="C118">
+        <v>1552.1135654959701</v>
+      </c>
+      <c r="D118">
+        <v>1625.55645936476</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>1385.7518690644699</v>
+      </c>
+      <c r="B119">
+        <v>1611.8216399230701</v>
+      </c>
+      <c r="C119">
+        <v>1688.62323635247</v>
+      </c>
+      <c r="D119">
+        <v>1768.09659958784</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>351.90733966157097</v>
+      </c>
+      <c r="B120">
+        <v>82.507368373597302</v>
+      </c>
+      <c r="C120">
+        <v>86.520429832955003</v>
+      </c>
+      <c r="D120">
+        <v>90.564117678582306</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>4705.4288590589304</v>
+      </c>
+      <c r="B121">
+        <v>6792.4481734467499</v>
+      </c>
+      <c r="C121">
+        <v>7123.1580078253401</v>
+      </c>
+      <c r="D121">
+        <v>7460.5756201367403</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>1433.34767887674</v>
+      </c>
+      <c r="B122">
+        <v>1748.91463540531</v>
+      </c>
+      <c r="C122">
+        <v>1832.52978759343</v>
+      </c>
+      <c r="D122">
+        <v>1918.7126959602799</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>1017.61208851181</v>
+      </c>
+      <c r="B123">
+        <v>1693.9257393436801</v>
+      </c>
+      <c r="C123">
+        <v>1778.4253431033001</v>
+      </c>
+      <c r="D123">
+        <v>1861.55301248401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>2317.6523320996598</v>
+      </c>
+      <c r="B124">
+        <v>1484.37442068732</v>
+      </c>
+      <c r="C124">
+        <v>1557.1489619122999</v>
+      </c>
+      <c r="D124">
+        <v>1629.83755724653</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>20526.390345828499</v>
+      </c>
+      <c r="B125">
+        <v>19326.6636108569</v>
+      </c>
+      <c r="C125">
+        <v>20203.810277523698</v>
+      </c>
+      <c r="D125">
+        <v>21197.127841430101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>7230.1980892510101</v>
+      </c>
+      <c r="B126">
+        <v>7928.7516472473599</v>
+      </c>
+      <c r="C126">
+        <v>8305.9446687992495</v>
+      </c>
+      <c r="D126">
+        <v>8700.1841227916793</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>1092.039027971</v>
+      </c>
+      <c r="B127">
+        <v>940.11575221882197</v>
+      </c>
+      <c r="C127">
+        <v>985.97114506996797</v>
+      </c>
+      <c r="D127">
+        <v>1032.05403766519</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>3200.0596052607102</v>
+      </c>
+      <c r="B128">
+        <v>3502.3494763622298</v>
+      </c>
+      <c r="C128">
+        <v>3675.33681419903</v>
+      </c>
+      <c r="D128">
+        <v>3847.0403447100098</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>22116.399184315898</v>
+      </c>
+      <c r="B129">
+        <v>39938.5809428258</v>
+      </c>
+      <c r="C129">
+        <v>41736.613716507898</v>
+      </c>
+      <c r="D129">
+        <v>43916.578292788901</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>1077.3391281786</v>
+      </c>
+      <c r="B130">
+        <v>2059.2756707448102</v>
+      </c>
+      <c r="C130">
+        <v>2160.37432750373</v>
+      </c>
+      <c r="D130">
+        <v>2261.9422417802798</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>14268.435733071699</v>
+      </c>
+      <c r="B131">
+        <v>20238.336399613901</v>
+      </c>
+      <c r="C131">
+        <v>21061.061944745299</v>
+      </c>
+      <c r="D131">
+        <v>22107.673888612</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>3093.3140577905801</v>
+      </c>
+      <c r="B132">
+        <v>5363.5743641393801</v>
+      </c>
+      <c r="C132">
+        <v>5613.93393399658</v>
+      </c>
+      <c r="D132">
+        <v>5878.96061552028</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>12365.993563476501</v>
+      </c>
+      <c r="B133">
+        <v>14011.764094051399</v>
+      </c>
+      <c r="C133">
+        <v>14631.8066403551</v>
+      </c>
+      <c r="D133">
+        <v>15329.828701660501</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>52131.663231813902</v>
+      </c>
+      <c r="B134">
+        <v>65926.813059933105</v>
+      </c>
+      <c r="C134">
+        <v>68480.800182907406</v>
+      </c>
+      <c r="D134">
+        <v>72369.067988288603</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>51.935287707116402</v>
+      </c>
+      <c r="B135">
+        <v>71.341332539541298</v>
+      </c>
+      <c r="C135">
+        <v>74.869488068173794</v>
+      </c>
+      <c r="D135">
+        <v>78.384196294125402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>11190.8729359258</v>
+      </c>
+      <c r="B136">
+        <v>10947.6003003236</v>
+      </c>
+      <c r="C136">
+        <v>11479.4106142578</v>
+      </c>
+      <c r="D136">
+        <v>12040.1865336596</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>21380.2944576396</v>
+      </c>
+      <c r="B137">
+        <v>29046.734484037701</v>
+      </c>
+      <c r="C137">
+        <v>30332.900162643498</v>
+      </c>
+      <c r="D137">
+        <v>31887.340489280799</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>4466.1425105974104</v>
+      </c>
+      <c r="B138">
+        <v>6804.4309246065504</v>
+      </c>
+      <c r="C138">
+        <v>7143.8796433811203</v>
+      </c>
+      <c r="D138">
+        <v>7481.1650369443996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>3512.9792459629002</v>
+      </c>
+      <c r="B139">
+        <v>4207.5741233783701</v>
+      </c>
+      <c r="C139">
+        <v>4415.9302514762903</v>
+      </c>
+      <c r="D139">
+        <v>4621.3539741791601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>585.23080002845802</v>
+      </c>
+      <c r="B140">
+        <v>679.88031678406298</v>
+      </c>
+      <c r="C140">
+        <v>713.42016983367103</v>
+      </c>
+      <c r="D140">
+        <v>746.916062937628</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>607.85768329944403</v>
+      </c>
+      <c r="B141">
+        <v>1231.44945174132</v>
+      </c>
+      <c r="C141">
+        <v>1293.1658912191201</v>
+      </c>
+      <c r="D141">
+        <v>1353.90966773632</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>5241.2976015839404</v>
+      </c>
+      <c r="B142">
+        <v>7171.2971942902404</v>
+      </c>
+      <c r="C142">
+        <v>7520.0063298192899</v>
+      </c>
+      <c r="D142">
+        <v>7877.6201630560599</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>13707.412767859099</v>
+      </c>
+      <c r="B143">
+        <v>15147.775039334099</v>
+      </c>
+      <c r="C143">
+        <v>15851.106202647399</v>
+      </c>
+      <c r="D143">
+        <v>16629.8339648416</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>1592.8376046204</v>
+      </c>
+      <c r="B144">
+        <v>1874.2511659045399</v>
+      </c>
+      <c r="C144">
+        <v>1966.4742545854899</v>
+      </c>
+      <c r="D144">
+        <v>2059.7863437105202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>42482.231710678701</v>
+      </c>
+      <c r="B145">
+        <v>56326.007778380197</v>
+      </c>
+      <c r="C145">
+        <v>59359.163221528397</v>
+      </c>
+      <c r="D145">
+        <v>61115.688107163201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>40528.612570976999</v>
+      </c>
+      <c r="B146">
+        <v>53461.070489846803</v>
+      </c>
+      <c r="C146">
+        <v>55562.460596810997</v>
+      </c>
+      <c r="D146">
+        <v>58628.049719782299</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>1584.2279605752999</v>
+      </c>
+      <c r="B147">
+        <v>1781.75765722663</v>
+      </c>
+      <c r="C147">
+        <v>1942.1327869530101</v>
+      </c>
+      <c r="D147">
+        <v>2095.5257880990298</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>1231.64950191095</v>
+      </c>
+      <c r="B148">
+        <v>1119.37891331286</v>
+      </c>
+      <c r="C148">
+        <v>1174.74356349408</v>
+      </c>
+      <c r="D148">
+        <v>1230.1514843381599</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>4022.16183876586</v>
+      </c>
+      <c r="B149">
+        <v>2761.8113167265301</v>
+      </c>
+      <c r="C149">
+        <v>2898.6131320302202</v>
+      </c>
+      <c r="D149">
+        <v>3035.8134598478</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>2699.91924111252</v>
+      </c>
+      <c r="B150">
+        <v>3057.16673130856</v>
+      </c>
+      <c r="C150">
+        <v>3066.2017388549398</v>
+      </c>
+      <c r="D150">
+        <v>3212.3345076719702</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>2543.1801015175702</v>
+      </c>
+      <c r="B151">
+        <v>1887.4628256999099</v>
+      </c>
+      <c r="C151">
+        <v>1981.4571242402501</v>
+      </c>
+      <c r="D151">
+        <v>1998.9780827872401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>3882.8739219182098</v>
+      </c>
+      <c r="B152">
+        <v>2833.7812254671699</v>
+      </c>
+      <c r="C152">
+        <v>2975.3137544884298</v>
+      </c>
+      <c r="D152">
+        <v>3112.9434076532498</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>1049.2536965115401</v>
+      </c>
+      <c r="B153">
+        <v>1249.8592572918201</v>
+      </c>
+      <c r="C153">
+        <v>1312.7512311144801</v>
+      </c>
+      <c r="D153">
+        <v>1373.8797414527201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>66331.091738474395</v>
+      </c>
+      <c r="B154">
+        <v>83898.764986986498</v>
+      </c>
+      <c r="C154">
+        <v>88638.331052219204</v>
+      </c>
+      <c r="D154">
+        <v>88388.272650909406</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D57977-FF4D-E349-A0DA-DD4FAA893499}">
+  <dimension ref="A1:D154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>2019</v>
+      </c>
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>4787.9335943739998</v>
+      </c>
+      <c r="B2">
+        <v>5362.2234909301396</v>
+      </c>
+      <c r="C2">
+        <v>6397.0684883840304</v>
+      </c>
+      <c r="D2">
+        <v>6164.5677607202597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1042.64950219811</v>
+      </c>
+      <c r="B3">
+        <v>1059.5799673388599</v>
+      </c>
+      <c r="C3">
+        <v>1033.2723208344601</v>
+      </c>
+      <c r="D3">
+        <v>1137.2417856877801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>382.24721618130599</v>
+      </c>
+      <c r="B4">
+        <v>269.70963413717101</v>
+      </c>
+      <c r="C4">
+        <v>299.86234340363802</v>
+      </c>
+      <c r="D4">
+        <v>309.95315676248998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>542.49425007257605</v>
+      </c>
+      <c r="B5">
+        <v>498.13104952983599</v>
+      </c>
+      <c r="C5">
+        <v>551.23754124971595</v>
+      </c>
+      <c r="D5">
+        <v>571.43422304557203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1698.75866427698</v>
+      </c>
+      <c r="B7">
+        <v>2037.8856822626201</v>
+      </c>
+      <c r="C7">
+        <v>2714.56995898479</v>
+      </c>
+      <c r="D7">
+        <v>2820.1772919729501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>10922.0886613333</v>
+      </c>
+      <c r="B8">
+        <v>18568.030456730401</v>
+      </c>
+      <c r="C8">
+        <v>23798.106843228899</v>
+      </c>
+      <c r="D8">
+        <v>26142.756727558401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>5656.0716281528103</v>
+      </c>
+      <c r="B9">
+        <v>9863.4853170685492</v>
+      </c>
+      <c r="C9">
+        <v>10085.502782329801</v>
+      </c>
+      <c r="D9">
+        <v>10759.161888770601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>3392.22790412324</v>
+      </c>
+      <c r="B10">
+        <v>4911.8000292695597</v>
+      </c>
+      <c r="C10">
+        <v>4618.8473714864103</v>
+      </c>
+      <c r="D10">
+        <v>5312.9309229519804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>891.69663808879898</v>
+      </c>
+      <c r="B11">
+        <v>905.73647959251502</v>
+      </c>
+      <c r="C11">
+        <v>885.59313763265402</v>
+      </c>
+      <c r="D11">
+        <v>975.90639752127504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>191.11216842123901</v>
+      </c>
+      <c r="B13">
+        <v>288.63721561821598</v>
+      </c>
+      <c r="C13">
+        <v>319.28391501457702</v>
+      </c>
+      <c r="D13">
+        <v>330.315388656376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>261.50775627483199</v>
+      </c>
+      <c r="B14">
+        <v>267.82628770888903</v>
+      </c>
+      <c r="C14">
+        <v>296.35897162837398</v>
+      </c>
+      <c r="D14">
+        <v>306.36603495839802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>723.53617420343096</v>
+      </c>
+      <c r="B15">
+        <v>1047.81737555941</v>
+      </c>
+      <c r="C15">
+        <v>959.64032501000702</v>
+      </c>
+      <c r="D15">
+        <v>1069.3996403257199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>102.72198158622901</v>
+      </c>
+      <c r="B16">
+        <v>184.429462320754</v>
+      </c>
+      <c r="C16">
+        <v>204.831718968177</v>
+      </c>
+      <c r="D16">
+        <v>211.59402560945799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2187.7991234802398</v>
+      </c>
+      <c r="B17">
+        <v>2996.9840469044998</v>
+      </c>
+      <c r="C17">
+        <v>3222.41588611519</v>
+      </c>
+      <c r="D17">
+        <v>3444.20260929915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1064.22654365416</v>
+      </c>
+      <c r="B18">
+        <v>1063.1302827330201</v>
+      </c>
+      <c r="C18">
+        <v>1155.1634058821401</v>
+      </c>
+      <c r="D18">
+        <v>1204.82276221186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>766.44702589556005</v>
+      </c>
+      <c r="B19">
+        <v>803.93063816260803</v>
+      </c>
+      <c r="C19">
+        <v>887.84707786684999</v>
+      </c>
+      <c r="D19">
+        <v>920.23777770030199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>22.006083483373398</v>
+      </c>
+      <c r="B20">
+        <v>28.5187485971149</v>
+      </c>
+      <c r="C20">
+        <v>31.727855988732699</v>
+      </c>
+      <c r="D20">
+        <v>32.705223870004801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1073.20801689983</v>
+      </c>
+      <c r="B21">
+        <v>1040.38503334038</v>
+      </c>
+      <c r="C21">
+        <v>1158.3915155643999</v>
+      </c>
+      <c r="D21">
+        <v>1208.1328206391699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>29.035611242903101</v>
+      </c>
+      <c r="B22">
+        <v>29.109530319400399</v>
+      </c>
+      <c r="C22">
+        <v>32.3781933434039</v>
+      </c>
+      <c r="D22">
+        <v>33.378031093151897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1027.2705932174599</v>
+      </c>
+      <c r="B23">
+        <v>818.95182609792698</v>
+      </c>
+      <c r="C23">
+        <v>901.52754141261596</v>
+      </c>
+      <c r="D23">
+        <v>937.73860373418302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>549.03914724303002</v>
+      </c>
+      <c r="B24">
+        <v>407.53002474653198</v>
+      </c>
+      <c r="C24">
+        <v>388.58963622677697</v>
+      </c>
+      <c r="D24">
+        <v>459.24595574655001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>123.806328097433</v>
+      </c>
+      <c r="B25">
+        <v>192.74923452751</v>
+      </c>
+      <c r="C25">
+        <v>184.863645290025</v>
+      </c>
+      <c r="D25">
+        <v>217.59320957907701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>30.209873478060398</v>
+      </c>
+      <c r="B26">
+        <v>49.852837095949603</v>
+      </c>
+      <c r="C26">
+        <v>48.034068697890099</v>
+      </c>
+      <c r="D26">
+        <v>56.485566610278802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>339.39345759262602</v>
+      </c>
+      <c r="B27">
+        <v>170.48506039460199</v>
+      </c>
+      <c r="C27">
+        <v>163.57559473016201</v>
+      </c>
+      <c r="D27">
+        <v>192.90219992927899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>599.99504974264801</v>
+      </c>
+      <c r="B28">
+        <v>554.62056147719704</v>
+      </c>
+      <c r="C28">
+        <v>546.15911468360298</v>
+      </c>
+      <c r="D28">
+        <v>489.84960536158201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>39.188774177409101</v>
+      </c>
+      <c r="B29">
+        <v>29.052626518662901</v>
+      </c>
+      <c r="C29">
+        <v>28.395232913101601</v>
+      </c>
+      <c r="D29">
+        <v>25.342597710260701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>58.298431545691997</v>
+      </c>
+      <c r="B30">
+        <v>65.586526164666296</v>
+      </c>
+      <c r="C30">
+        <v>64.014087117292206</v>
+      </c>
+      <c r="D30">
+        <v>57.200008797324301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>87.604249606047603</v>
+      </c>
+      <c r="B31">
+        <v>92.815229961735895</v>
+      </c>
+      <c r="C31">
+        <v>91.254471390025898</v>
+      </c>
+      <c r="D31">
+        <v>81.000815019022895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>386.60547057003498</v>
+      </c>
+      <c r="B32">
+        <v>459.835409441499</v>
+      </c>
+      <c r="C32">
+        <v>447.747872607001</v>
+      </c>
+      <c r="D32">
+        <v>401.250577513846</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>972.26848447641601</v>
+      </c>
+      <c r="B33">
+        <v>928.52379760234805</v>
+      </c>
+      <c r="C33">
+        <v>900.54651623813197</v>
+      </c>
+      <c r="D33">
+        <v>812.54291155309795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>928.55132905408698</v>
+      </c>
+      <c r="B34">
+        <v>775.15108724644801</v>
+      </c>
+      <c r="C34">
+        <v>755.487034176821</v>
+      </c>
+      <c r="D34">
+        <v>679.23996884510098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>539.89983769988703</v>
+      </c>
+      <c r="B35">
+        <v>529.11567310280304</v>
+      </c>
+      <c r="C35">
+        <v>438.930468133506</v>
+      </c>
+      <c r="D35">
+        <v>449.33298658889902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>888.43504242454401</v>
+      </c>
+      <c r="B36">
+        <v>951.43222998105796</v>
+      </c>
+      <c r="C36">
+        <v>923.54700371515605</v>
+      </c>
+      <c r="D36">
+        <v>832.87065496564503</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>211.88597246288001</v>
+      </c>
+      <c r="B37">
+        <v>161.68319546652799</v>
+      </c>
+      <c r="C37">
+        <v>132.89640189607599</v>
+      </c>
+      <c r="D37">
+        <v>136.15656098717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1542.7559144721099</v>
+      </c>
+      <c r="B38">
+        <v>1864.55373695975</v>
+      </c>
+      <c r="C38">
+        <v>1798.39388700987</v>
+      </c>
+      <c r="D38">
+        <v>1639.08669421014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>86.829891717846493</v>
+      </c>
+      <c r="B39">
+        <v>105.550269211442</v>
+      </c>
+      <c r="C39">
+        <v>87.0119182686134</v>
+      </c>
+      <c r="D39">
+        <v>89.011330404804198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>156.16746066280001</v>
+      </c>
+      <c r="B40">
+        <v>393.40507810729503</v>
+      </c>
+      <c r="C40">
+        <v>324.356139510302</v>
+      </c>
+      <c r="D40">
+        <v>332.312674909328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>344.72555697184998</v>
+      </c>
+      <c r="B41">
+        <v>529.51593095504995</v>
+      </c>
+      <c r="C41">
+        <v>435.07409350379299</v>
+      </c>
+      <c r="D41">
+        <v>446.278493905039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>2431.7411498952702</v>
+      </c>
+      <c r="B42">
+        <v>2389.6974390569999</v>
+      </c>
+      <c r="C42">
+        <v>3165.13392742816</v>
+      </c>
+      <c r="D42">
+        <v>3305.2792127518501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>373.26710545383702</v>
+      </c>
+      <c r="B43">
+        <v>701.252832386666</v>
+      </c>
+      <c r="C43">
+        <v>957.06924373368895</v>
+      </c>
+      <c r="D43">
+        <v>974.27556561573499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>3920.1971232770102</v>
+      </c>
+      <c r="B44">
+        <v>3804.30783253152</v>
+      </c>
+      <c r="C44">
+        <v>3853.58346199369</v>
+      </c>
+      <c r="D44">
+        <v>3802.4151850964299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>205.98052781409601</v>
+      </c>
+      <c r="B45">
+        <v>258.15827216538901</v>
+      </c>
+      <c r="C45">
+        <v>271.98220793598301</v>
+      </c>
+      <c r="D45">
+        <v>256.00042938927402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45.993707494952197</v>
+      </c>
+      <c r="B46">
+        <v>72.429141938355997</v>
+      </c>
+      <c r="C46">
+        <v>76.077046328300796</v>
+      </c>
+      <c r="D46">
+        <v>71.551781970955702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>312.81053795369297</v>
+      </c>
+      <c r="B47">
+        <v>359.41701468884401</v>
+      </c>
+      <c r="C47">
+        <v>376.98690498688302</v>
+      </c>
+      <c r="D47">
+        <v>355.75687982079899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>4380.28835713639</v>
+      </c>
+      <c r="B48">
+        <v>4852.6488061878499</v>
+      </c>
+      <c r="C48">
+        <v>4842.5794608447804</v>
+      </c>
+      <c r="D48">
+        <v>4845.9309797508304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>1654.76893663325</v>
+      </c>
+      <c r="B49">
+        <v>2125.2032138325299</v>
+      </c>
+      <c r="C49">
+        <v>2188.9826429240202</v>
+      </c>
+      <c r="D49">
+        <v>2110.49128420325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>1203.2649310184399</v>
+      </c>
+      <c r="B50">
+        <v>1937.9624000353799</v>
+      </c>
+      <c r="C50">
+        <v>1999.72915290368</v>
+      </c>
+      <c r="D50">
+        <v>1923.13635666557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>2550.1929185620602</v>
+      </c>
+      <c r="B51">
+        <v>3431.4529388308101</v>
+      </c>
+      <c r="C51">
+        <v>3477.6088514729499</v>
+      </c>
+      <c r="D51">
+        <v>3415.6126807932001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>194.84461494048301</v>
+      </c>
+      <c r="B52">
+        <v>159.67737757897001</v>
+      </c>
+      <c r="C52">
+        <v>167.579069498737</v>
+      </c>
+      <c r="D52">
+        <v>157.731377990449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>354.29588775065702</v>
+      </c>
+      <c r="B53">
+        <v>441.61368208137702</v>
+      </c>
+      <c r="C53">
+        <v>429.94517538582602</v>
+      </c>
+      <c r="D53">
+        <v>385.45229100095901</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>1224.3892799451901</v>
+      </c>
+      <c r="B54">
+        <v>1481.4565410866601</v>
+      </c>
+      <c r="C54">
+        <v>1536.2368876181599</v>
+      </c>
+      <c r="D54">
+        <v>1469.4874115548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>43.451413260208398</v>
+      </c>
+      <c r="B55">
+        <v>123.640487854555</v>
+      </c>
+      <c r="C55">
+        <v>121.15367080019</v>
+      </c>
+      <c r="D55">
+        <v>108.268194026618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>3.4695806089932</v>
+      </c>
+      <c r="B56">
+        <v>3.9681923241411701</v>
+      </c>
+      <c r="C56">
+        <v>3.8801844818743301</v>
+      </c>
+      <c r="D56">
+        <v>3.4617356506702301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>17.1857685050038</v>
+      </c>
+      <c r="B57">
+        <v>19.660678395489601</v>
+      </c>
+      <c r="C57">
+        <v>19.239254901205001</v>
+      </c>
+      <c r="D57">
+        <v>17.164617846448799</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>470.96013249615999</v>
+      </c>
+      <c r="B58">
+        <v>616.214755114529</v>
+      </c>
+      <c r="C58">
+        <v>598.80046703291703</v>
+      </c>
+      <c r="D58">
+        <v>537.44076841473395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>65.488032153953597</v>
+      </c>
+      <c r="B59">
+        <v>93.156249713933406</v>
+      </c>
+      <c r="C59">
+        <v>91.008010778433899</v>
+      </c>
+      <c r="D59">
+        <v>81.324793853061706</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>26.716132367370601</v>
+      </c>
+      <c r="B60">
+        <v>36.347031780513902</v>
+      </c>
+      <c r="C60">
+        <v>35.562962185179501</v>
+      </c>
+      <c r="D60">
+        <v>31.705625701656398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>302.15337994727798</v>
+      </c>
+      <c r="B61">
+        <v>549.76576690169304</v>
+      </c>
+      <c r="C61">
+        <v>537.30532199193499</v>
+      </c>
+      <c r="D61">
+        <v>482.43096351004903</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>24.058735325512998</v>
+      </c>
+      <c r="B62">
+        <v>302.05451012710398</v>
+      </c>
+      <c r="C62">
+        <v>294.72950303063999</v>
+      </c>
+      <c r="D62">
+        <v>263.51042235710503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>1012.84167702001</v>
+      </c>
+      <c r="B63">
+        <v>1382.87973283918</v>
+      </c>
+      <c r="C63">
+        <v>1338.88601141958</v>
+      </c>
+      <c r="D63">
+        <v>1213.167999817</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>403.09724204632602</v>
+      </c>
+      <c r="B64">
+        <v>1364.29252232452</v>
+      </c>
+      <c r="C64">
+        <v>1318.9970504970299</v>
+      </c>
+      <c r="D64">
+        <v>1194.80295486213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>5684.8425529743599</v>
+      </c>
+      <c r="B65">
+        <v>5176.0233332064799</v>
+      </c>
+      <c r="C65">
+        <v>4838.1166122934801</v>
+      </c>
+      <c r="D65">
+        <v>4604.3524266354898</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>635.58263381997699</v>
+      </c>
+      <c r="B66">
+        <v>804.14116415487103</v>
+      </c>
+      <c r="C66">
+        <v>781.066324338134</v>
+      </c>
+      <c r="D66">
+        <v>702.93086882539899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>845.183455576234</v>
+      </c>
+      <c r="B67">
+        <v>945.37267986945699</v>
+      </c>
+      <c r="C67">
+        <v>917.38075196624095</v>
+      </c>
+      <c r="D67">
+        <v>826.99766335146603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>583.03420869188005</v>
+      </c>
+      <c r="B68">
+        <v>967.42435840114194</v>
+      </c>
+      <c r="C68">
+        <v>934.11086383502402</v>
+      </c>
+      <c r="D68">
+        <v>876.01611866469295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>800.54263247615302</v>
+      </c>
+      <c r="B69">
+        <v>640.39905756695202</v>
+      </c>
+      <c r="C69">
+        <v>620.00377707688006</v>
+      </c>
+      <c r="D69">
+        <v>579.39659941008995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>279.881628931823</v>
+      </c>
+      <c r="B70">
+        <v>277.50895385140899</v>
+      </c>
+      <c r="C70">
+        <v>268.80085556100897</v>
+      </c>
+      <c r="D70">
+        <v>249.87147695269499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>1255.6359193457799</v>
+      </c>
+      <c r="B71">
+        <v>1477.19713712619</v>
+      </c>
+      <c r="C71">
+        <v>1424.0797877131599</v>
+      </c>
+      <c r="D71">
+        <v>1342.9889083035901</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>569.08239909294298</v>
+      </c>
+      <c r="B72">
+        <v>680.36993461377006</v>
+      </c>
+      <c r="C72">
+        <v>658.26495750973504</v>
+      </c>
+      <c r="D72">
+        <v>615.17820585111599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>744.99973392218499</v>
+      </c>
+      <c r="B73">
+        <v>617.49456169503105</v>
+      </c>
+      <c r="C73">
+        <v>594.06456962913398</v>
+      </c>
+      <c r="D73">
+        <v>554.60501386144199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>1320.6555884433701</v>
+      </c>
+      <c r="B74">
+        <v>1540.5127590336999</v>
+      </c>
+      <c r="C74">
+        <v>1480.2747110655</v>
+      </c>
+      <c r="D74">
+        <v>1396.4468272398699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>340.921501957678</v>
+      </c>
+      <c r="B75">
+        <v>309.80315826269901</v>
+      </c>
+      <c r="C75">
+        <v>300.01818634163601</v>
+      </c>
+      <c r="D75">
+        <v>279.22287885595102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>403.13380406237798</v>
+      </c>
+      <c r="B76">
+        <v>399.94694689932498</v>
+      </c>
+      <c r="C76">
+        <v>387.63140436474498</v>
+      </c>
+      <c r="D76">
+        <v>361.13050345773098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>47.438731959038797</v>
+      </c>
+      <c r="B77">
+        <v>66.324871237230298</v>
+      </c>
+      <c r="C77">
+        <v>64.450525099468194</v>
+      </c>
+      <c r="D77">
+        <v>59.8376099452814</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>1281.1482889507799</v>
+      </c>
+      <c r="B78">
+        <v>1699.4711416748</v>
+      </c>
+      <c r="C78">
+        <v>1630.21674958126</v>
+      </c>
+      <c r="D78">
+        <v>1539.88872640774</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>3362.7011814038801</v>
+      </c>
+      <c r="B79">
+        <v>3984.1071663242601</v>
+      </c>
+      <c r="C79">
+        <v>3746.1459527469101</v>
+      </c>
+      <c r="D79">
+        <v>3639.2906304550202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>3202.4309706966601</v>
+      </c>
+      <c r="B80">
+        <v>3648.4189124923</v>
+      </c>
+      <c r="C80">
+        <v>3436.9037632982299</v>
+      </c>
+      <c r="D80">
+        <v>3321.8951925637198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>1806.3127012856801</v>
+      </c>
+      <c r="B81">
+        <v>1972.8768741809799</v>
+      </c>
+      <c r="C81">
+        <v>1886.5166525469599</v>
+      </c>
+      <c r="D81">
+        <v>1788.1475462062399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>49.4336548478799</v>
+      </c>
+      <c r="B82">
+        <v>54.405869043092402</v>
+      </c>
+      <c r="C82">
+        <v>52.843225569627997</v>
+      </c>
+      <c r="D82">
+        <v>49.042784468050698</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>144.870439570885</v>
+      </c>
+      <c r="B83">
+        <v>188.31962438615099</v>
+      </c>
+      <c r="C83">
+        <v>182.52919193479099</v>
+      </c>
+      <c r="D83">
+        <v>169.73484652404599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>2086.26804636933</v>
+      </c>
+      <c r="B84">
+        <v>793.44662879543398</v>
+      </c>
+      <c r="C84">
+        <v>767.70460948017501</v>
+      </c>
+      <c r="D84">
+        <v>718.43636252561998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>353.04524791168899</v>
+      </c>
+      <c r="B85">
+        <v>416.14316326361899</v>
+      </c>
+      <c r="C85">
+        <v>403.48648720760599</v>
+      </c>
+      <c r="D85">
+        <v>376.02703000634199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>2334.2315153373602</v>
+      </c>
+      <c r="B86">
+        <v>2775.1968795020698</v>
+      </c>
+      <c r="C86">
+        <v>2638.1412562542901</v>
+      </c>
+      <c r="D86">
+        <v>2524.74169771484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>518.32751495389198</v>
+      </c>
+      <c r="B87">
+        <v>602.069089139227</v>
+      </c>
+      <c r="C87">
+        <v>580.98307186021202</v>
+      </c>
+      <c r="D87">
+        <v>542.37928849289096</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>318.93733434210799</v>
+      </c>
+      <c r="B88">
+        <v>355.555097270403</v>
+      </c>
+      <c r="C88">
+        <v>343.66722531882601</v>
+      </c>
+      <c r="D88">
+        <v>320.15631992674003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>494.52822291164102</v>
+      </c>
+      <c r="B89">
+        <v>412.91986956113402</v>
+      </c>
+      <c r="C89">
+        <v>400.02603339058999</v>
+      </c>
+      <c r="D89">
+        <v>372.68874527880803</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>797.85678329709197</v>
+      </c>
+      <c r="B90">
+        <v>1037.1301465727399</v>
+      </c>
+      <c r="C90">
+        <v>1001.19356190972</v>
+      </c>
+      <c r="D90">
+        <v>938.58399557254597</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>3474.61855361276</v>
+      </c>
+      <c r="B91">
+        <v>4439.9312472236898</v>
+      </c>
+      <c r="C91">
+        <v>4165.2199683785102</v>
+      </c>
+      <c r="D91">
+        <v>4069.9362229757598</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>2872.7629856932199</v>
+      </c>
+      <c r="B92">
+        <v>3160.35033212297</v>
+      </c>
+      <c r="C92">
+        <v>2997.0708006968198</v>
+      </c>
+      <c r="D92">
+        <v>2882.9658466721398</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>559.41570868461997</v>
+      </c>
+      <c r="B93">
+        <v>695.68937290096096</v>
+      </c>
+      <c r="C93">
+        <v>673.67557896381504</v>
+      </c>
+      <c r="D93">
+        <v>629.59487532981302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>243.64864238099901</v>
+      </c>
+      <c r="B94">
+        <v>303.81046619568201</v>
+      </c>
+      <c r="C94">
+        <v>295.388160040542</v>
+      </c>
+      <c r="D94">
+        <v>274.64925872703702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>11163.396036845899</v>
+      </c>
+      <c r="B95">
+        <v>18830.4605293243</v>
+      </c>
+      <c r="C95">
+        <v>21235.802881208401</v>
+      </c>
+      <c r="D95">
+        <v>19634.6505965904</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>3600.7484796871299</v>
+      </c>
+      <c r="B97">
+        <v>4651.0129343974904</v>
+      </c>
+      <c r="C97">
+        <v>4356.5639210387099</v>
+      </c>
+      <c r="D97">
+        <v>4268.8190747254903</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>121.756011635158</v>
+      </c>
+      <c r="B98">
+        <v>110.01499001689</v>
+      </c>
+      <c r="C98">
+        <v>90.470750486827797</v>
+      </c>
+      <c r="D98">
+        <v>92.544401995275805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>1315.4515845594599</v>
+      </c>
+      <c r="B99">
+        <v>777.55413801091004</v>
+      </c>
+      <c r="C99">
+        <v>759.38114069399205</v>
+      </c>
+      <c r="D99">
+        <v>835.62768670083699</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>174.95726454864899</v>
+      </c>
+      <c r="B100">
+        <v>249.619508563133</v>
+      </c>
+      <c r="C100">
+        <v>206.41805718933301</v>
+      </c>
+      <c r="D100">
+        <v>211.162900871685</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>17.332842563268301</v>
+      </c>
+      <c r="B101">
+        <v>17.291913184851001</v>
+      </c>
+      <c r="C101">
+        <v>23.830816654009499</v>
+      </c>
+      <c r="D101">
+        <v>24.0140525429828</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>378.92897473578398</v>
+      </c>
+      <c r="B104">
+        <v>420.23415025857798</v>
+      </c>
+      <c r="C104">
+        <v>325.96046988712698</v>
+      </c>
+      <c r="D104">
+        <v>260.53020930775398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>32.127477966826703</v>
+      </c>
+      <c r="B105">
+        <v>36.0907275912298</v>
+      </c>
+      <c r="C105">
+        <v>24.207005423647399</v>
+      </c>
+      <c r="D105">
+        <v>24.003136647474001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>113.42005689509899</v>
+      </c>
+      <c r="B106">
+        <v>143.57838912173199</v>
+      </c>
+      <c r="C106">
+        <v>96.768452067438602</v>
+      </c>
+      <c r="D106">
+        <v>99.775016135027599</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>52.476408303216701</v>
+      </c>
+      <c r="B107">
+        <v>70.098982468706296</v>
+      </c>
+      <c r="C107">
+        <v>44.468150978075897</v>
+      </c>
+      <c r="D107">
+        <v>39.5862584396518</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>26.748247087096299</v>
+      </c>
+      <c r="B108">
+        <v>32.378882162489901</v>
+      </c>
+      <c r="C108">
+        <v>26.481999094208799</v>
+      </c>
+      <c r="D108">
+        <v>25.723218448466</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>28.3414230757014</v>
+      </c>
+      <c r="B109">
+        <v>28.806074331296902</v>
+      </c>
+      <c r="C109">
+        <v>23.728635336574701</v>
+      </c>
+      <c r="D109">
+        <v>24.268522160517801</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>192.47026127894799</v>
+      </c>
+      <c r="B112">
+        <v>111.938563226732</v>
+      </c>
+      <c r="C112">
+        <v>110.543588488525</v>
+      </c>
+      <c r="D112">
+        <v>105.204699210643</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>32.149258470533297</v>
+      </c>
+      <c r="B113">
+        <v>21.0267950089561</v>
+      </c>
+      <c r="C113">
+        <v>21.5894548038602</v>
+      </c>
+      <c r="D113">
+        <v>20.539090751222201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>581.25345048089901</v>
+      </c>
+      <c r="B114">
+        <v>403.51094698794799</v>
+      </c>
+      <c r="C114">
+        <v>395.63652267064401</v>
+      </c>
+      <c r="D114">
+        <v>377.82863235892103</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>32.905435942365798</v>
+      </c>
+      <c r="B115">
+        <v>19.346301994234501</v>
+      </c>
+      <c r="C115">
+        <v>19.115180552655801</v>
+      </c>
+      <c r="D115">
+        <v>18.190844898395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>323.711232250281</v>
+      </c>
+      <c r="B116">
+        <v>28.676791548417999</v>
+      </c>
+      <c r="C116">
+        <v>28.308199647648301</v>
+      </c>
+      <c r="D116">
+        <v>26.939256369269302</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>229.324897267126</v>
+      </c>
+      <c r="B117">
+        <v>143.952075922462</v>
+      </c>
+      <c r="C117">
+        <v>142.013995487752</v>
+      </c>
+      <c r="D117">
+        <v>135.360542419675</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>4925.1644763268696</v>
+      </c>
+      <c r="B118">
+        <v>3171.1174867120199</v>
+      </c>
+      <c r="C118">
+        <v>3048.0699822609199</v>
+      </c>
+      <c r="D118">
+        <v>3006.91708468657</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>33.6618123861942</v>
+      </c>
+      <c r="B119">
+        <v>20.123826233470002</v>
+      </c>
+      <c r="C119">
+        <v>20.3367742418646</v>
+      </c>
+      <c r="D119">
+        <v>19.3419686481265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>225.343307177707</v>
+      </c>
+      <c r="B123">
+        <v>489.281417518897</v>
+      </c>
+      <c r="C123">
+        <v>487.46053517595698</v>
+      </c>
+      <c r="D123">
+        <v>466.00523899601802</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>2843.9929466131598</v>
+      </c>
+      <c r="B124">
+        <v>1677.32114605735</v>
+      </c>
+      <c r="C124">
+        <v>1631.99546559596</v>
+      </c>
+      <c r="D124">
+        <v>1580.6744644079999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>2314.7046007993599</v>
+      </c>
+      <c r="B125">
+        <v>1481.23541511438</v>
+      </c>
+      <c r="C125">
+        <v>1444.64121931667</v>
+      </c>
+      <c r="D125">
+        <v>1394.93510404986</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>265.06155039020501</v>
+      </c>
+      <c r="B126">
+        <v>188.61961863002799</v>
+      </c>
+      <c r="C126">
+        <v>186.07441760385001</v>
+      </c>
+      <c r="D126">
+        <v>177.441659851005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>1701.1836097944799</v>
+      </c>
+      <c r="B129">
+        <v>2572.92227290235</v>
+      </c>
+      <c r="C129">
+        <v>2482.9097381900801</v>
+      </c>
+      <c r="D129">
+        <v>2430.2955237326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>214.598310896632</v>
+      </c>
+      <c r="B130">
+        <v>357.38538368368501</v>
+      </c>
+      <c r="C130">
+        <v>352.50131878558801</v>
+      </c>
+      <c r="D130">
+        <v>336.221203186521</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>593.77736620836004</v>
+      </c>
+      <c r="B131">
+        <v>626.66097817568698</v>
+      </c>
+      <c r="C131">
+        <v>616.39653814008</v>
+      </c>
+      <c r="D131">
+        <v>589.66447466158695</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>505.65803083547399</v>
+      </c>
+      <c r="B133">
+        <v>579.61431239589695</v>
+      </c>
+      <c r="C133">
+        <v>575.81299593703</v>
+      </c>
+      <c r="D133">
+        <v>554.31652943060396</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>2777.4707576666801</v>
+      </c>
+      <c r="B136">
+        <v>3385.0119486552899</v>
+      </c>
+      <c r="C136">
+        <v>3235.99697620194</v>
+      </c>
+      <c r="D136">
+        <v>3197.3258087580598</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>1339.7766449221001</v>
+      </c>
+      <c r="B137">
+        <v>3099.6426148901101</v>
+      </c>
+      <c r="C137">
+        <v>2973.2531092196</v>
+      </c>
+      <c r="D137">
+        <v>2924.3019509911901</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>0.11648539762488801</v>
+      </c>
+      <c r="B138">
+        <v>6.3367144286338398E-2</v>
+      </c>
+      <c r="C138">
+        <v>6.2593213932109801E-2</v>
+      </c>
+      <c r="D138">
+        <v>5.9578255708782099E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>258.77677396071601</v>
+      </c>
+      <c r="B141">
+        <v>156.61107825523601</v>
+      </c>
+      <c r="C141">
+        <v>154.67285620476201</v>
+      </c>
+      <c r="D141">
+        <v>147.34889948411401</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>251.938376600049</v>
+      </c>
+      <c r="B142">
+        <v>153.80995355332601</v>
+      </c>
+      <c r="C142">
+        <v>151.99798993684601</v>
+      </c>
+      <c r="D142">
+        <v>144.72518976178199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>273.775980429985</v>
+      </c>
+      <c r="B143">
+        <v>131.247455925791</v>
+      </c>
+      <c r="C143">
+        <v>129.828368718024</v>
+      </c>
+      <c r="D143">
+        <v>123.659821492894</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>268.51932494072798</v>
+      </c>
+      <c r="B146">
+        <v>138.12716922190299</v>
+      </c>
+      <c r="C146">
+        <v>136.31578674799201</v>
+      </c>
+      <c r="D146">
+        <v>130.15510587628501</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>203.11715889143599</v>
+      </c>
+      <c r="B148">
+        <v>263.09235973288202</v>
+      </c>
+      <c r="C148">
+        <v>260.13134818296999</v>
+      </c>
+      <c r="D148">
+        <v>247.73598901169899</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>1024.2786383816599</v>
+      </c>
+      <c r="B149">
+        <v>269.59278882773901</v>
+      </c>
+      <c r="C149">
+        <v>269.35107472330202</v>
+      </c>
+      <c r="D149">
+        <v>256.77367585176103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>245.0992002225</v>
+      </c>
+      <c r="B150">
+        <v>155.10463465538101</v>
+      </c>
+      <c r="C150">
+        <v>153.46806772236999</v>
+      </c>
+      <c r="D150">
+        <v>146.068178851418</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>263.26035085349702</v>
+      </c>
+      <c r="B151">
+        <v>134.86847015631901</v>
+      </c>
+      <c r="C151">
+        <v>126.95861037974301</v>
+      </c>
+      <c r="D151">
+        <v>127.126952303995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>735.06390648879596</v>
+      </c>
+      <c r="B152">
+        <v>469.38989424572998</v>
+      </c>
+      <c r="C152">
+        <v>464.37787791676499</v>
+      </c>
+      <c r="D152">
+        <v>443.86438588475897</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>288.23188195359501</v>
+      </c>
+      <c r="B154">
+        <v>285.58443366844</v>
+      </c>
+      <c r="C154">
+        <v>280.66066729070701</v>
+      </c>
+      <c r="D154">
+        <v>268.41320168581802</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>